--- a/[H] Requirements Elicitation/Analysis/Codes nav_distractions_1-5 Comparisons.xlsx
+++ b/[H] Requirements Elicitation/Analysis/Codes nav_distractions_1-5 Comparisons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lucasjohnston.sharepoint.com/sites/Personal/Gedeelde documenten/Studie/[15] Master Thesis/[H] Requirements Elicitation/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1294" documentId="8_{0E91EF87-D3F1-4CF4-B918-3E43661BECA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A758A7D-F4DE-44EF-A79C-00EDA352F786}"/>
+  <xr:revisionPtr revIDLastSave="1351" documentId="8_{0E91EF87-D3F1-4CF4-B918-3E43661BECA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DA090A1-35D6-4326-8381-305CC08DCBA3}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="691" xr2:uid="{A2D2436F-6D82-4857-960A-E615779F51BD}"/>
   </bookViews>
@@ -254,8 +254,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -343,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -364,29 +365,20 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -394,6 +386,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -531,34 +524,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Conflict between other system and navigation (f=24)</c:v>
+                  <c:v>Conflict between other system and navigation w(f)=15,6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Bad instructions or difficulty interpreting (f=17)</c:v>
+                  <c:v>Bad instructions or difficulty interpreting w(f)=13,6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Navigation interferes with driving tasks (f=15)</c:v>
+                  <c:v>Navigation and traffic related notifications w(f)=10,4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Navigation and traffic related notifications (f=15)</c:v>
+                  <c:v>Navigation interferes with driving tasks w(f)=10,3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Searching what lane to take (f=13)</c:v>
+                  <c:v>Searching what lane to take w(f)=9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Route changes or suggestions (f=12)</c:v>
+                  <c:v>Message notifications interfere with navigation w(f)=9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Navigation system failure (f=11)</c:v>
+                  <c:v>Communication failure w(f)=9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Message notifications interfere with navigation (f=9)</c:v>
+                  <c:v>Route changes or suggestions w(f)=8,6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Communication failure (f=9)</c:v>
+                  <c:v>Navigation system failure w(f)=7,1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Traffic camera notifications (f=6)</c:v>
+                  <c:v>Traffic camera notifications w(f)=6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -570,34 +563,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.21428571428571427</c:v>
+                  <c:v>6.8181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>2.2727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11428571428571428</c:v>
+                  <c:v>3.6363636363636367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11428571428571428</c:v>
+                  <c:v>3.6363636363636367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>3.1818181818181821</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5714285714285715E-2</c:v>
+                  <c:v>3.1818181818181821</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1</c:v>
+                  <c:v>2.7272727272727275</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1</c:v>
+                  <c:v>2.7272727272727275</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5714285714285715E-2</c:v>
+                  <c:v>3.1818181818181821</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4285714285714285E-2</c:v>
+                  <c:v>0.45454545454545459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -682,34 +675,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Conflict between other system and navigation (f=24)</c:v>
+                  <c:v>Conflict between other system and navigation w(f)=15,6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Bad instructions or difficulty interpreting (f=17)</c:v>
+                  <c:v>Bad instructions or difficulty interpreting w(f)=13,6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Navigation interferes with driving tasks (f=15)</c:v>
+                  <c:v>Navigation and traffic related notifications w(f)=10,4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Navigation and traffic related notifications (f=15)</c:v>
+                  <c:v>Navigation interferes with driving tasks w(f)=10,3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Searching what lane to take (f=13)</c:v>
+                  <c:v>Searching what lane to take w(f)=9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Route changes or suggestions (f=12)</c:v>
+                  <c:v>Message notifications interfere with navigation w(f)=9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Navigation system failure (f=11)</c:v>
+                  <c:v>Communication failure w(f)=9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Message notifications interfere with navigation (f=9)</c:v>
+                  <c:v>Route changes or suggestions w(f)=8,6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Communication failure (f=9)</c:v>
+                  <c:v>Navigation system failure w(f)=7,1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Traffic camera notifications (f=6)</c:v>
+                  <c:v>Traffic camera notifications w(f)=6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -721,31 +714,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.0909090909090912E-2</c:v>
+                  <c:v>2.8125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>10.3125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15151515151515152</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12121212121212122</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0909090909090912E-2</c:v>
+                  <c:v>2.8125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0606060606060608E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0606060606060608E-2</c:v>
+                  <c:v>1.3636363636363638</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0909090909090912E-2</c:v>
+                  <c:v>1.875</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -833,34 +826,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Conflict between other system and navigation (f=24)</c:v>
+                  <c:v>Conflict between other system and navigation w(f)=15,6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Bad instructions or difficulty interpreting (f=17)</c:v>
+                  <c:v>Bad instructions or difficulty interpreting w(f)=13,6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Navigation interferes with driving tasks (f=15)</c:v>
+                  <c:v>Navigation and traffic related notifications w(f)=10,4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Navigation and traffic related notifications (f=15)</c:v>
+                  <c:v>Navigation interferes with driving tasks w(f)=10,3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Searching what lane to take (f=13)</c:v>
+                  <c:v>Searching what lane to take w(f)=9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Route changes or suggestions (f=12)</c:v>
+                  <c:v>Message notifications interfere with navigation w(f)=9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Navigation system failure (f=11)</c:v>
+                  <c:v>Communication failure w(f)=9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Message notifications interfere with navigation (f=9)</c:v>
+                  <c:v>Route changes or suggestions w(f)=8,6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Communication failure (f=9)</c:v>
+                  <c:v>Navigation system failure w(f)=7,1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Traffic camera notifications (f=6)</c:v>
+                  <c:v>Traffic camera notifications w(f)=6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -872,34 +865,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.21428571428571427</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5714285714285712E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10714285714285714</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10714285714285714</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17857142857142858</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1663,6 +1656,50 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>492219</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>4747</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Afbeelding 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46798EC-2F57-4BE9-46BB-6A95F5F19BF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8785860" y="5303520"/>
+          <a:ext cx="8413209" cy="2024047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1963,11 +2000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4D2707-AB3A-41B1-811F-7083CEBDA611}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,706 +2028,706 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="19">
         <v>9</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="20">
         <v>5</v>
       </c>
-      <c r="D2" s="24">
-        <f>C2/SUM(C$2:C$11)</f>
+      <c r="D2" s="21">
+        <f t="shared" ref="D2:D11" si="0">C2/SUM(C$2:C$11)</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="E2" s="24">
-        <f>C2/33*sample_size_weighting_factor</f>
+      <c r="E2" s="21">
+        <f t="shared" ref="E2:E11" si="1">C2/33*sample_size_weighting_factor</f>
         <v>2.2727272727272729</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="20">
         <v>11</v>
       </c>
-      <c r="G2" s="24">
-        <f>F2/SUM(F$2:F$11)</f>
+      <c r="G2" s="21">
+        <f t="shared" ref="G2:G11" si="2">F2/SUM(F$2:F$11)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="21">
         <f>F2/16*sample_size_weighting_factor</f>
         <v>10.3125</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="20">
         <v>1</v>
       </c>
-      <c r="J2" s="24">
-        <f>I2/SUM(I$2:I$11)</f>
+      <c r="J2" s="21">
+        <f t="shared" ref="J2:J11" si="3">I2/SUM(I$2:I$11)</f>
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="K2" s="24">
-        <f>I2/15*sample_size_weighting_factor</f>
+      <c r="K2" s="21">
+        <f t="shared" ref="K2:K11" si="4">I2/15*sample_size_weighting_factor</f>
         <v>1</v>
       </c>
-      <c r="L2" s="24">
-        <f>IF(D2-G2&lt;0,(D2-G2)*-1,D2-G2)</f>
-        <v>0.26190476190476186</v>
-      </c>
-      <c r="M2" s="24">
-        <f>IF(D2-J2&lt;0,(D2-J2)*-1,D2-J2)</f>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="N2" s="24">
-        <f>IF(G2-J2&lt;0,(G2-J2)*-1,G2-J2)</f>
-        <v>0.29761904761904762</v>
-      </c>
-      <c r="O2" s="23">
-        <f>C2+F2+I2</f>
-        <v>17</v>
-      </c>
-      <c r="P2" s="24">
-        <f>L2+M2+N2</f>
-        <v>0.59523809523809512</v>
-      </c>
-      <c r="Q2" s="24">
-        <f>P2*O2^2</f>
-        <v>172.02380952380949</v>
+      <c r="L2" s="21">
+        <f t="shared" ref="L2:L11" si="5">IF(E2-H2&lt;0,(E2-H2)*-1,E2-H2)</f>
+        <v>8.0397727272727266</v>
+      </c>
+      <c r="M2" s="21">
+        <f t="shared" ref="M2:M11" si="6">IF(E2-K2&lt;0,(E2-K2)*-1,E2-K2)</f>
+        <v>1.2727272727272729</v>
+      </c>
+      <c r="N2" s="21">
+        <f t="shared" ref="N2:N11" si="7">IF(H2-K2&lt;0,(H2-K2)*-1,H2-K2)</f>
+        <v>9.3125</v>
+      </c>
+      <c r="O2" s="20">
+        <f>E2+H2+K2</f>
+        <v>13.585227272727273</v>
+      </c>
+      <c r="P2" s="21">
+        <f t="shared" ref="P2:P11" si="8">L2+M2+N2</f>
+        <v>18.625</v>
+      </c>
+      <c r="Q2" s="21">
+        <f t="shared" ref="Q2:Q11" si="9">P2*O2^2</f>
+        <v>3437.4002009620353</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="20">
         <v>15</v>
       </c>
-      <c r="D3" s="24">
-        <f>C3/SUM(C$2:C$11)</f>
+      <c r="D3" s="21">
+        <f t="shared" si="0"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="E3" s="24">
-        <f>C3/33*sample_size_weighting_factor</f>
+      <c r="E3" s="21">
+        <f t="shared" si="1"/>
         <v>6.8181818181818183</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="20">
         <v>3</v>
       </c>
-      <c r="G3" s="24">
-        <f>F3/SUM(F$2:F$11)</f>
+      <c r="G3" s="21">
+        <f t="shared" si="2"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="21">
         <f>F3/16*sample_size_weighting_factor</f>
         <v>2.8125</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="20">
         <v>6</v>
       </c>
-      <c r="J3" s="24">
-        <f>I3/SUM(I$2:I$11)</f>
+      <c r="J3" s="21">
+        <f t="shared" si="3"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="K3" s="24">
-        <f>I3/15*sample_size_weighting_factor</f>
+      <c r="K3" s="21">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="L3" s="24">
-        <f>IF(D3-G3&lt;0,(D3-G3)*-1,D3-G3)</f>
-        <v>0.12337662337662336</v>
-      </c>
-      <c r="M3" s="24">
-        <f>IF(D3-J3&lt;0,(D3-J3)*-1,D3-J3)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="24">
-        <f>IF(G3-J3&lt;0,(G3-J3)*-1,G3-J3)</f>
-        <v>0.12337662337662336</v>
-      </c>
-      <c r="O3" s="23">
-        <f>C3+F3+I3</f>
-        <v>24</v>
-      </c>
-      <c r="P3" s="24">
-        <f>L3+M3+N3</f>
-        <v>0.24675324675324672</v>
-      </c>
-      <c r="Q3" s="24">
-        <f>P3*O3^2</f>
-        <v>142.12987012987011</v>
+      <c r="L3" s="21">
+        <f t="shared" si="5"/>
+        <v>4.0056818181818183</v>
+      </c>
+      <c r="M3" s="21">
+        <f t="shared" si="6"/>
+        <v>0.81818181818181834</v>
+      </c>
+      <c r="N3" s="21">
+        <f t="shared" si="7"/>
+        <v>3.1875</v>
+      </c>
+      <c r="O3" s="20">
+        <f>E3+H3+K3</f>
+        <v>15.630681818181818</v>
+      </c>
+      <c r="P3" s="21">
+        <f t="shared" si="8"/>
+        <v>8.0113636363636367</v>
+      </c>
+      <c r="Q3" s="21">
+        <f t="shared" si="9"/>
+        <v>1957.322056151977</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="20">
         <v>8</v>
       </c>
-      <c r="D4" s="24">
-        <f>C4/SUM(C$2:C$11)</f>
+      <c r="D4" s="21">
+        <f t="shared" si="0"/>
         <v>0.11428571428571428</v>
       </c>
-      <c r="E4" s="24">
-        <f>C4/33*sample_size_weighting_factor</f>
+      <c r="E4" s="21">
+        <f t="shared" si="1"/>
         <v>3.6363636363636367</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="20">
         <v>5</v>
       </c>
-      <c r="G4" s="24">
-        <f>F4/SUM(F$2:F$11)</f>
+      <c r="G4" s="21">
+        <f t="shared" si="2"/>
         <v>0.15151515151515152</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="21">
         <f>F4/16*sample_size_weighting_factor</f>
         <v>4.6875</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="20">
         <v>2</v>
       </c>
-      <c r="J4" s="24">
-        <f>I4/SUM(I$2:I$11)</f>
+      <c r="J4" s="21">
+        <f t="shared" si="3"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="K4" s="24">
-        <f>I4/15*sample_size_weighting_factor</f>
+      <c r="K4" s="21">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="L4" s="24">
-        <f>IF(D4-G4&lt;0,(D4-G4)*-1,D4-G4)</f>
-        <v>3.7229437229437237E-2</v>
-      </c>
-      <c r="M4" s="24">
-        <f>IF(D4-J4&lt;0,(D4-J4)*-1,D4-J4)</f>
-        <v>4.2857142857142858E-2</v>
-      </c>
-      <c r="N4" s="24">
-        <f>IF(G4-J4&lt;0,(G4-J4)*-1,G4-J4)</f>
-        <v>8.0086580086580095E-2</v>
-      </c>
-      <c r="O4" s="23">
-        <f>C4+F4+I4</f>
-        <v>15</v>
-      </c>
-      <c r="P4" s="24">
-        <f>L4+M4+N4</f>
-        <v>0.16017316017316019</v>
-      </c>
-      <c r="Q4" s="24">
-        <f>P4*O4^2</f>
-        <v>36.038961038961041</v>
+      <c r="L4" s="21">
+        <f t="shared" si="5"/>
+        <v>1.0511363636363633</v>
+      </c>
+      <c r="M4" s="21">
+        <f t="shared" si="6"/>
+        <v>1.6363636363636367</v>
+      </c>
+      <c r="N4" s="21">
+        <f t="shared" si="7"/>
+        <v>2.6875</v>
+      </c>
+      <c r="O4" s="20">
+        <f>E4+H4+K4</f>
+        <v>10.323863636363637</v>
+      </c>
+      <c r="P4" s="21">
+        <f t="shared" si="8"/>
+        <v>5.375</v>
+      </c>
+      <c r="Q4" s="21">
+        <f t="shared" si="9"/>
+        <v>572.87911205449382</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="20">
+        <v>7</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" si="1"/>
+        <v>3.1818181818181821</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="21">
+        <f>F5/33*sample_size_weighting_factor</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="20">
+        <v>2</v>
+      </c>
+      <c r="J5" s="21">
+        <f t="shared" si="3"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="K5" s="21">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L5" s="21">
+        <f t="shared" si="5"/>
+        <v>3.1818181818181821</v>
+      </c>
+      <c r="M5" s="21">
+        <f t="shared" si="6"/>
+        <v>1.1818181818181821</v>
+      </c>
+      <c r="N5" s="21">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="O5" s="20">
+        <f>C5+F5+I5</f>
+        <v>9</v>
+      </c>
+      <c r="P5" s="21">
+        <f t="shared" si="8"/>
+        <v>6.3636363636363642</v>
+      </c>
+      <c r="Q5" s="21">
+        <f t="shared" si="9"/>
+        <v>515.4545454545455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>8</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="20">
         <v>6</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="23">
-        <v>6</v>
-      </c>
-      <c r="D5" s="24">
-        <f>C5/SUM(C$2:C$11)</f>
+      <c r="D6" s="21">
+        <f t="shared" si="0"/>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="E5" s="24">
-        <f>C5/33*sample_size_weighting_factor</f>
+      <c r="E6" s="21">
+        <f t="shared" si="1"/>
         <v>2.7272727272727275</v>
       </c>
-      <c r="F5" s="23">
-        <v>2</v>
-      </c>
-      <c r="G5" s="24">
-        <f>F5/SUM(F$2:F$11)</f>
-        <v>6.0606060606060608E-2</v>
-      </c>
-      <c r="H5" s="24">
-        <f>F5/16*sample_size_weighting_factor</f>
-        <v>1.875</v>
-      </c>
-      <c r="I5" s="23">
-        <v>4</v>
-      </c>
-      <c r="J5" s="24">
-        <f>I5/SUM(I$2:I$11)</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="K5" s="24">
-        <f>I5/15*sample_size_weighting_factor</f>
-        <v>4</v>
-      </c>
-      <c r="L5" s="24">
-        <f>IF(D5-G5&lt;0,(D5-G5)*-1,D5-G5)</f>
-        <v>2.5108225108225107E-2</v>
-      </c>
-      <c r="M5" s="24">
-        <f>IF(D5-J5&lt;0,(D5-J5)*-1,D5-J5)</f>
-        <v>5.7142857142857134E-2</v>
-      </c>
-      <c r="N5" s="24">
-        <f>IF(G5-J5&lt;0,(G5-J5)*-1,G5-J5)</f>
-        <v>8.2251082251082241E-2</v>
-      </c>
-      <c r="O5" s="23">
-        <f>C5+F5+I5</f>
-        <v>12</v>
-      </c>
-      <c r="P5" s="24">
-        <f>L5+M5+N5</f>
-        <v>0.16450216450216448</v>
-      </c>
-      <c r="Q5" s="24">
-        <f>P5*O5^2</f>
-        <v>23.688311688311686</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
-        <v>4</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="23">
-        <v>7</v>
-      </c>
-      <c r="D6" s="24">
-        <f>C6/SUM(C$2:C$11)</f>
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="24">
-        <f>C6/33*sample_size_weighting_factor</f>
-        <v>3.1818181818181821</v>
-      </c>
-      <c r="F6" s="23">
+      <c r="F6" s="20">
+        <v>3</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="H6" s="21">
+        <f>F6/33*sample_size_weighting_factor</f>
+        <v>1.3636363636363638</v>
+      </c>
+      <c r="I6" s="20">
         <v>0</v>
       </c>
-      <c r="G6" s="24">
-        <f>F6/SUM(F$2:F$11)</f>
+      <c r="J6" s="21">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="24">
-        <f>F6/33*sample_size_weighting_factor</f>
+      <c r="K6" s="21">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I6" s="23">
-        <v>2</v>
-      </c>
-      <c r="J6" s="24">
-        <f>I6/SUM(I$2:I$11)</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="K6" s="24">
-        <f>I6/15*sample_size_weighting_factor</f>
-        <v>2</v>
-      </c>
-      <c r="L6" s="24">
-        <f>IF(D6-G6&lt;0,(D6-G6)*-1,D6-G6)</f>
-        <v>0.1</v>
-      </c>
-      <c r="M6" s="24">
-        <f>IF(D6-J6&lt;0,(D6-J6)*-1,D6-J6)</f>
-        <v>2.8571428571428581E-2</v>
-      </c>
-      <c r="N6" s="24">
-        <f>IF(G6-J6&lt;0,(G6-J6)*-1,G6-J6)</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="O6" s="23">
+      <c r="L6" s="21">
+        <f t="shared" si="5"/>
+        <v>1.3636363636363638</v>
+      </c>
+      <c r="M6" s="21">
+        <f t="shared" si="6"/>
+        <v>2.7272727272727275</v>
+      </c>
+      <c r="N6" s="21">
+        <f t="shared" si="7"/>
+        <v>1.3636363636363638</v>
+      </c>
+      <c r="O6" s="20">
         <f>C6+F6+I6</f>
         <v>9</v>
       </c>
-      <c r="P6" s="24">
-        <f>L6+M6+N6</f>
-        <v>0.2</v>
-      </c>
-      <c r="Q6" s="24">
-        <f>P6*O6^2</f>
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="P6" s="21">
+        <f t="shared" si="8"/>
+        <v>5.454545454545455</v>
+      </c>
+      <c r="Q6" s="21">
+        <f t="shared" si="9"/>
+        <v>441.81818181818187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>10</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" si="0"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" si="1"/>
+        <v>0.45454545454545459</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="21">
+        <f>F7/33*sample_size_weighting_factor</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
+        <v>5</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" si="3"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="K7" s="21">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="L7" s="21">
+        <f t="shared" si="5"/>
+        <v>0.45454545454545459</v>
+      </c>
+      <c r="M7" s="21">
+        <f t="shared" si="6"/>
+        <v>4.545454545454545</v>
+      </c>
+      <c r="N7" s="21">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="O7" s="20">
+        <f>C7+F7+I7</f>
+        <v>6</v>
+      </c>
+      <c r="P7" s="21">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="Q7" s="21">
+        <f t="shared" si="9"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="20">
+        <v>6</v>
+      </c>
+      <c r="D8" s="21">
+        <f t="shared" si="0"/>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" si="1"/>
+        <v>2.7272727272727275</v>
+      </c>
+      <c r="F8" s="20">
+        <v>2</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="2"/>
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="H8" s="21">
+        <f>F8/16*sample_size_weighting_factor</f>
+        <v>1.875</v>
+      </c>
+      <c r="I8" s="20">
+        <v>4</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="3"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K8" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L8" s="21">
+        <f t="shared" si="5"/>
+        <v>0.85227272727272751</v>
+      </c>
+      <c r="M8" s="21">
+        <f t="shared" si="6"/>
+        <v>1.2727272727272725</v>
+      </c>
+      <c r="N8" s="21">
+        <f t="shared" si="7"/>
+        <v>2.125</v>
+      </c>
+      <c r="O8" s="20">
+        <f>E8+H8+K8</f>
+        <v>8.6022727272727266</v>
+      </c>
+      <c r="P8" s="21">
+        <f t="shared" si="8"/>
+        <v>4.25</v>
+      </c>
+      <c r="Q8" s="21">
+        <f t="shared" si="9"/>
+        <v>314.49615831611561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>5</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="20">
         <v>8</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="23">
-        <v>6</v>
-      </c>
-      <c r="D7" s="24">
-        <f>C7/SUM(C$2:C$11)</f>
-        <v>8.5714285714285715E-2</v>
-      </c>
-      <c r="E7" s="24">
-        <f>C7/33*sample_size_weighting_factor</f>
-        <v>2.7272727272727275</v>
-      </c>
-      <c r="F7" s="23">
+      <c r="D9" s="21">
+        <f t="shared" si="0"/>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" si="1"/>
+        <v>3.6363636363636367</v>
+      </c>
+      <c r="F9" s="20">
+        <v>4</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" si="2"/>
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="H9" s="21">
+        <f>F9/16*sample_size_weighting_factor</f>
+        <v>3.75</v>
+      </c>
+      <c r="I9" s="20">
         <v>3</v>
       </c>
-      <c r="G7" s="24">
-        <f>F7/SUM(F$2:F$11)</f>
+      <c r="J9" s="21">
+        <f t="shared" si="3"/>
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="K9" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L9" s="21">
+        <f t="shared" si="5"/>
+        <v>0.11363636363636331</v>
+      </c>
+      <c r="M9" s="21">
+        <f t="shared" si="6"/>
+        <v>0.63636363636363669</v>
+      </c>
+      <c r="N9" s="21">
+        <f t="shared" si="7"/>
+        <v>0.75</v>
+      </c>
+      <c r="O9" s="20">
+        <f>E9+H9+K9</f>
+        <v>10.386363636363637</v>
+      </c>
+      <c r="P9" s="21">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q9" s="21">
+        <f t="shared" si="9"/>
+        <v>161.81482438016531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="20">
+        <v>7</v>
+      </c>
+      <c r="D10" s="21">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="21">
+        <f t="shared" si="1"/>
+        <v>3.1818181818181821</v>
+      </c>
+      <c r="F10" s="20">
+        <v>2</v>
+      </c>
+      <c r="G10" s="21">
+        <f t="shared" si="2"/>
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="H10" s="21">
+        <f>F10/16*sample_size_weighting_factor</f>
+        <v>1.875</v>
+      </c>
+      <c r="I10" s="20">
+        <v>2</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="3"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="K10" s="21">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L10" s="21">
+        <f t="shared" si="5"/>
+        <v>1.3068181818181821</v>
+      </c>
+      <c r="M10" s="21">
+        <f t="shared" si="6"/>
+        <v>1.1818181818181821</v>
+      </c>
+      <c r="N10" s="21">
+        <f t="shared" si="7"/>
+        <v>0.125</v>
+      </c>
+      <c r="O10" s="20">
+        <f>E10+H10+K10</f>
+        <v>7.0568181818181817</v>
+      </c>
+      <c r="P10" s="21">
+        <f t="shared" si="8"/>
+        <v>2.6136363636363642</v>
+      </c>
+      <c r="Q10" s="21">
+        <f t="shared" si="9"/>
+        <v>130.15564836119461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>2</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="20">
+        <v>7</v>
+      </c>
+      <c r="D11" s="21">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" si="1"/>
+        <v>3.1818181818181821</v>
+      </c>
+      <c r="F11" s="20">
+        <v>3</v>
+      </c>
+      <c r="G11" s="21">
+        <f t="shared" si="2"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="H7" s="24">
-        <f>F7/33*sample_size_weighting_factor</f>
-        <v>1.3636363636363638</v>
-      </c>
-      <c r="I7" s="23">
-        <v>0</v>
-      </c>
-      <c r="J7" s="24">
-        <f>I7/SUM(I$2:I$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="24">
-        <f>I7/15*sample_size_weighting_factor</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="24">
-        <f>IF(D7-G7&lt;0,(D7-G7)*-1,D7-G7)</f>
-        <v>5.1948051948051965E-3</v>
-      </c>
-      <c r="M7" s="24">
-        <f>IF(D7-J7&lt;0,(D7-J7)*-1,D7-J7)</f>
-        <v>8.5714285714285715E-2</v>
-      </c>
-      <c r="N7" s="24">
-        <f>IF(G7-J7&lt;0,(G7-J7)*-1,G7-J7)</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="O7" s="23">
-        <f>C7+F7+I7</f>
-        <v>9</v>
-      </c>
-      <c r="P7" s="24">
-        <f>L7+M7+N7</f>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="Q7" s="24">
-        <f>P7*O7^2</f>
-        <v>14.727272727272728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
-        <v>10</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="23">
-        <v>1</v>
-      </c>
-      <c r="D8" s="24">
-        <f>C8/SUM(C$2:C$11)</f>
-        <v>1.4285714285714285E-2</v>
-      </c>
-      <c r="E8" s="24">
-        <f>C8/33*sample_size_weighting_factor</f>
-        <v>0.45454545454545459</v>
-      </c>
-      <c r="F8" s="23">
-        <v>0</v>
-      </c>
-      <c r="G8" s="24">
-        <f>F8/SUM(F$2:F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="24">
-        <f>F8/33*sample_size_weighting_factor</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="23">
-        <v>5</v>
-      </c>
-      <c r="J8" s="24">
-        <f>I8/SUM(I$2:I$11)</f>
-        <v>0.17857142857142858</v>
-      </c>
-      <c r="K8" s="24">
-        <f>I8/15*sample_size_weighting_factor</f>
-        <v>5</v>
-      </c>
-      <c r="L8" s="24">
-        <f>IF(D8-G8&lt;0,(D8-G8)*-1,D8-G8)</f>
-        <v>1.4285714285714285E-2</v>
-      </c>
-      <c r="M8" s="24">
-        <f>IF(D8-J8&lt;0,(D8-J8)*-1,D8-J8)</f>
-        <v>0.16428571428571428</v>
-      </c>
-      <c r="N8" s="24">
-        <f>IF(G8-J8&lt;0,(G8-J8)*-1,G8-J8)</f>
-        <v>0.17857142857142858</v>
-      </c>
-      <c r="O8" s="23">
-        <f>C8+F8+I8</f>
-        <v>6</v>
-      </c>
-      <c r="P8" s="24">
-        <f>L8+M8+N8</f>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="Q8" s="24">
-        <f>P8*O8^2</f>
-        <v>12.857142857142858</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <v>7</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="23">
-        <v>7</v>
-      </c>
-      <c r="D9" s="24">
-        <f>C9/SUM(C$2:C$11)</f>
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="24">
-        <f>C9/33*sample_size_weighting_factor</f>
-        <v>3.1818181818181821</v>
-      </c>
-      <c r="F9" s="23">
-        <v>2</v>
-      </c>
-      <c r="G9" s="24">
-        <f>F9/SUM(F$2:F$11)</f>
-        <v>6.0606060606060608E-2</v>
-      </c>
-      <c r="H9" s="24">
-        <f>F9/16*sample_size_weighting_factor</f>
-        <v>1.875</v>
-      </c>
-      <c r="I9" s="23">
-        <v>2</v>
-      </c>
-      <c r="J9" s="24">
-        <f>I9/SUM(I$2:I$11)</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="K9" s="24">
-        <f>I9/15*sample_size_weighting_factor</f>
-        <v>2</v>
-      </c>
-      <c r="L9" s="24">
-        <f>IF(D9-G9&lt;0,(D9-G9)*-1,D9-G9)</f>
-        <v>3.9393939393939398E-2</v>
-      </c>
-      <c r="M9" s="24">
-        <f>IF(D9-J9&lt;0,(D9-J9)*-1,D9-J9)</f>
-        <v>2.8571428571428581E-2</v>
-      </c>
-      <c r="N9" s="24">
-        <f>IF(G9-J9&lt;0,(G9-J9)*-1,G9-J9)</f>
-        <v>1.0822510822510817E-2</v>
-      </c>
-      <c r="O9" s="23">
-        <f>C9+F9+I9</f>
-        <v>11</v>
-      </c>
-      <c r="P9" s="24">
-        <f>L9+M9+N9</f>
-        <v>7.8787878787878796E-2</v>
-      </c>
-      <c r="Q9" s="24">
-        <f>P9*O9^2</f>
-        <v>9.533333333333335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <v>5</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="23">
-        <v>8</v>
-      </c>
-      <c r="D10" s="24">
-        <f>C10/SUM(C$2:C$11)</f>
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="E10" s="24">
-        <f>C10/33*sample_size_weighting_factor</f>
-        <v>3.6363636363636367</v>
-      </c>
-      <c r="F10" s="23">
-        <v>4</v>
-      </c>
-      <c r="G10" s="24">
-        <f>F10/SUM(F$2:F$11)</f>
-        <v>0.12121212121212122</v>
-      </c>
-      <c r="H10" s="24">
-        <f>F10/16*sample_size_weighting_factor</f>
-        <v>3.75</v>
-      </c>
-      <c r="I10" s="23">
-        <v>3</v>
-      </c>
-      <c r="J10" s="24">
-        <f>I10/SUM(I$2:I$11)</f>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="K10" s="24">
-        <f>I10/15*sample_size_weighting_factor</f>
-        <v>3</v>
-      </c>
-      <c r="L10" s="24">
-        <f>IF(D10-G10&lt;0,(D10-G10)*-1,D10-G10)</f>
-        <v>6.9264069264069333E-3</v>
-      </c>
-      <c r="M10" s="24">
-        <f>IF(D10-J10&lt;0,(D10-J10)*-1,D10-J10)</f>
-        <v>7.1428571428571452E-3</v>
-      </c>
-      <c r="N10" s="24">
-        <f>IF(G10-J10&lt;0,(G10-J10)*-1,G10-J10)</f>
-        <v>1.4069264069264079E-2</v>
-      </c>
-      <c r="O10" s="23">
-        <f>C10+F10+I10</f>
-        <v>15</v>
-      </c>
-      <c r="P10" s="24">
-        <f>L10+M10+N10</f>
-        <v>2.8138528138528157E-2</v>
-      </c>
-      <c r="Q10" s="24">
-        <f>P10*O10^2</f>
-        <v>6.331168831168835</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
-        <v>2</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="23">
-        <v>7</v>
-      </c>
-      <c r="D11" s="24">
-        <f>C11/SUM(C$2:C$11)</f>
-        <v>0.1</v>
-      </c>
-      <c r="E11" s="24">
-        <f>C11/33*sample_size_weighting_factor</f>
-        <v>3.1818181818181821</v>
-      </c>
-      <c r="F11" s="23">
-        <v>3</v>
-      </c>
-      <c r="G11" s="24">
-        <f>F11/SUM(F$2:F$11)</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="H11" s="24">
+      <c r="H11" s="21">
         <f>F11/16*sample_size_weighting_factor</f>
         <v>2.8125</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="20">
         <v>3</v>
       </c>
-      <c r="J11" s="24">
-        <f>I11/SUM(I$2:I$11)</f>
+      <c r="J11" s="21">
+        <f t="shared" si="3"/>
         <v>0.10714285714285714</v>
       </c>
-      <c r="K11" s="24">
-        <f>I11/15*sample_size_weighting_factor</f>
+      <c r="K11" s="21">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="L11" s="24">
-        <f>IF(D11-G11&lt;0,(D11-G11)*-1,D11-G11)</f>
-        <v>9.0909090909090939E-3</v>
-      </c>
-      <c r="M11" s="24">
-        <f>IF(D11-J11&lt;0,(D11-J11)*-1,D11-J11)</f>
-        <v>7.1428571428571314E-3</v>
-      </c>
-      <c r="N11" s="24">
-        <f>IF(G11-J11&lt;0,(G11-J11)*-1,G11-J11)</f>
-        <v>1.6233766233766225E-2</v>
-      </c>
-      <c r="O11" s="23">
-        <f>C11+F11+I11</f>
-        <v>13</v>
-      </c>
-      <c r="P11" s="24">
-        <f>L11+M11+N11</f>
-        <v>3.2467532467532451E-2</v>
-      </c>
-      <c r="Q11" s="24">
-        <f>P11*O11^2</f>
-        <v>5.4870129870129842</v>
+      <c r="L11" s="21">
+        <f t="shared" si="5"/>
+        <v>0.3693181818181821</v>
+      </c>
+      <c r="M11" s="21">
+        <f t="shared" si="6"/>
+        <v>0.1818181818181821</v>
+      </c>
+      <c r="N11" s="21">
+        <f t="shared" si="7"/>
+        <v>0.1875</v>
+      </c>
+      <c r="O11" s="20">
+        <f>E11+H11+K11</f>
+        <v>8.9943181818181817</v>
+      </c>
+      <c r="P11" s="21">
+        <f t="shared" si="8"/>
+        <v>0.7386363636363642</v>
+      </c>
+      <c r="Q11" s="21">
+        <f t="shared" si="9"/>
+        <v>59.754026944614054</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -2746,18 +2782,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q11" xr:uid="{3E4D2707-AB3A-41B1-811F-7083CEBDA611}">
-    <filterColumn colId="14">
-      <filters>
-        <filter val="11"/>
-        <filter val="12"/>
-        <filter val="13"/>
-        <filter val="15"/>
-        <filter val="17"/>
-        <filter val="24"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q11">
-      <sortCondition descending="1" ref="Q1"/>
+      <sortCondition descending="1" ref="Q1:Q11"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="L2:N11">
@@ -2981,7 +3007,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="4"/>
     <col min="5" max="5" width="9.140625" style="5"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -2991,15 +3017,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
       <c r="J1" t="s">
         <v>15</v>
       </c>
@@ -3023,7 +3049,7 @@
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -3046,7 +3072,7 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="4">
         <f>AVERAGE(C3:C4)</f>
         <v>4.8153409090909092</v>
       </c>
@@ -3057,7 +3083,7 @@
       <c r="D3" s="4">
         <v>15</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <v>33</v>
       </c>
       <c r="F3" s="3">
@@ -3084,7 +3110,7 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="4">
         <f>AVERAGE(C3:C4)</f>
         <v>4.8153409090909092</v>
       </c>
@@ -3095,7 +3121,7 @@
       <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>16</v>
       </c>
       <c r="F4" s="3">
@@ -3210,15 +3236,15 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
       <c r="J10" t="s">
         <v>11</v>
       </c>
@@ -3242,7 +3268,7 @@
       <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -3265,7 +3291,7 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="4">
         <f>AVERAGE(C12:C13)</f>
         <v>6.4090909090909092</v>
       </c>
@@ -3291,7 +3317,7 @@
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="4">
         <f>AVERAGE(C12:C13)</f>
         <v>6.4090909090909092</v>
       </c>
@@ -3373,15 +3399,15 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
       <c r="J19" t="s">
         <v>9</v>
       </c>
@@ -3396,7 +3422,7 @@
       <c r="D20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -3410,7 +3436,7 @@
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="4">
         <f>AVERAGE(C21:C22)</f>
         <v>4.40625</v>
       </c>
@@ -3439,7 +3465,7 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="4">
         <f>AVERAGE(C21:C22)</f>
         <v>4.40625</v>
       </c>
@@ -3506,15 +3532,15 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
@@ -3526,7 +3552,7 @@
       <c r="D29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -3537,7 +3563,7 @@
       <c r="A30" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="4">
         <f>AVERAGE(C30:C31)</f>
         <v>6.2926136363636367</v>
       </c>
@@ -3548,7 +3574,7 @@
       <c r="D30" s="4">
         <v>5</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="14">
         <v>33</v>
       </c>
       <c r="F30" s="3">
@@ -3563,7 +3589,7 @@
       <c r="A31" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="4">
         <f>AVERAGE(C30:C31)</f>
         <v>6.2926136363636367</v>
       </c>
@@ -3574,7 +3600,7 @@
       <c r="D31" s="4">
         <v>11</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="14">
         <v>16</v>
       </c>
       <c r="F31" s="3">
@@ -3613,15 +3639,15 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
@@ -3633,7 +3659,7 @@
       <c r="D38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -3644,7 +3670,7 @@
       <c r="A39" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="4">
         <f>AVERAGE(C39:C40)</f>
         <v>1.6363636363636365</v>
       </c>
@@ -3665,16 +3691,16 @@
         <f>((B39-C39)^2)/B39</f>
         <v>0.24747474747474754</v>
       </c>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="4">
         <f>AVERAGE(C39:C40)</f>
         <v>1.6363636363636365</v>
       </c>
@@ -3695,17 +3721,17 @@
         <f>((B40-C40)^2)/B40</f>
         <v>0.24747474747474754</v>
       </c>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G41" s="5"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F42" s="4" t="s">
@@ -3735,15 +3761,15 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
@@ -3755,7 +3781,7 @@
       <c r="D47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -3766,7 +3792,7 @@
       <c r="A48" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="4">
         <f>AVERAGE(C48:C49)</f>
         <v>5.65625</v>
       </c>
@@ -3792,7 +3818,7 @@
       <c r="A49" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="4">
         <f>AVERAGE(C48:C49)</f>
         <v>5.65625</v>
       </c>
@@ -3842,15 +3868,15 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
@@ -3862,7 +3888,7 @@
       <c r="D56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -3873,7 +3899,7 @@
       <c r="A57" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="4">
         <f>AVERAGE(C57:C58)</f>
         <v>4.1619318181818183</v>
       </c>
@@ -3884,7 +3910,7 @@
       <c r="D57" s="4">
         <v>8</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="14">
         <v>33</v>
       </c>
       <c r="G57">
@@ -3896,7 +3922,7 @@
       <c r="A58" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B58" s="4">
         <f>AVERAGE(C57:C58)</f>
         <v>4.1619318181818183</v>
       </c>
@@ -3907,7 +3933,7 @@
       <c r="D58" s="4">
         <v>5</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58" s="14">
         <v>16</v>
       </c>
       <c r="G58">
@@ -3943,15 +3969,15 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
@@ -3963,7 +3989,7 @@
       <c r="D65" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -3974,7 +4000,7 @@
       <c r="A66" t="s">
         <v>19</v>
       </c>
-      <c r="B66" s="14">
+      <c r="B66" s="4">
         <f>AVERAGE(C66:C67)</f>
         <v>2.8181818181818183</v>
       </c>
@@ -3997,7 +4023,7 @@
       <c r="A67" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B67" s="4">
         <f>AVERAGE(C66:C67)</f>
         <v>2.8181818181818183</v>
       </c>
@@ -4047,15 +4073,15 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
@@ -4067,7 +4093,7 @@
       <c r="D74" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -4078,7 +4104,7 @@
       <c r="A75" t="s">
         <v>20</v>
       </c>
-      <c r="B75" s="14">
+      <c r="B75" s="4">
         <f>AVERAGE(C75:C76)</f>
         <v>3.34375</v>
       </c>
@@ -4101,7 +4127,7 @@
       <c r="A76" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="14">
+      <c r="B76" s="4">
         <f>AVERAGE(C75:C76)</f>
         <v>3.34375</v>
       </c>
@@ -4148,15 +4174,15 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
@@ -4168,7 +4194,7 @@
       <c r="D83" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F83" s="1" t="s">
@@ -4179,7 +4205,7 @@
       <c r="A84" t="s">
         <v>19</v>
       </c>
-      <c r="B84" s="14">
+      <c r="B84" s="4">
         <f>AVERAGE(C84:C85)</f>
         <v>2.9971590909090908</v>
       </c>
@@ -4190,7 +4216,7 @@
       <c r="D84" s="4">
         <v>7</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E84" s="14">
         <v>33</v>
       </c>
       <c r="G84">
@@ -4202,7 +4228,7 @@
       <c r="A85" t="s">
         <v>20</v>
       </c>
-      <c r="B85" s="14">
+      <c r="B85" s="4">
         <f>AVERAGE(C84:C85)</f>
         <v>2.9971590909090908</v>
       </c>
@@ -4213,7 +4239,7 @@
       <c r="D85" s="4">
         <v>3</v>
       </c>
-      <c r="E85" s="16">
+      <c r="E85" s="14">
         <v>16</v>
       </c>
       <c r="G85">
@@ -4248,24 +4274,19 @@
         <v>0.88009802216273769</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J90" s="20"/>
-      <c r="K90" s="20"/>
-      <c r="L90" s="20"/>
-    </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="18"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
@@ -4277,21 +4298,18 @@
       <c r="D92" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J92" s="20"/>
-      <c r="K92" s="20"/>
-      <c r="L92" s="20"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>19</v>
       </c>
-      <c r="B93" s="14">
+      <c r="B93" s="4">
         <f>AVERAGE(C93:C94)</f>
         <v>3.0909090909090908</v>
       </c>
@@ -4314,7 +4332,7 @@
       <c r="A94" t="s">
         <v>26</v>
       </c>
-      <c r="B94" s="14">
+      <c r="B94" s="4">
         <f>AVERAGE(C93:C94)</f>
         <v>3.0909090909090908</v>
       </c>
@@ -4364,15 +4382,15 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
@@ -4384,7 +4402,7 @@
       <c r="D101" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F101" s="1" t="s">
@@ -4395,7 +4413,7 @@
       <c r="A102" t="s">
         <v>20</v>
       </c>
-      <c r="B102" s="14">
+      <c r="B102" s="4">
         <f>AVERAGE(C102:C103)</f>
         <v>2.90625</v>
       </c>
@@ -4418,7 +4436,7 @@
       <c r="A103" t="s">
         <v>26</v>
       </c>
-      <c r="B103" s="14">
+      <c r="B103" s="4">
         <f>AVERAGE(C102:C103)</f>
         <v>2.90625</v>
       </c>
@@ -4465,15 +4483,15 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
@@ -4485,7 +4503,7 @@
       <c r="D110" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F110" s="1" t="s">
@@ -4496,7 +4514,7 @@
       <c r="A111" t="s">
         <v>19</v>
       </c>
-      <c r="B111" s="14">
+      <c r="B111" s="4">
         <f>AVERAGE(C111:C112)</f>
         <v>3.6931818181818183</v>
       </c>
@@ -4507,7 +4525,7 @@
       <c r="D111" s="4">
         <v>8</v>
       </c>
-      <c r="E111" s="16">
+      <c r="E111" s="14">
         <v>33</v>
       </c>
       <c r="G111">
@@ -4519,7 +4537,7 @@
       <c r="A112" t="s">
         <v>20</v>
       </c>
-      <c r="B112" s="14">
+      <c r="B112" s="4">
         <f>AVERAGE(C111:C112)</f>
         <v>3.6931818181818183</v>
       </c>
@@ -4530,7 +4548,7 @@
       <c r="D112" s="4">
         <v>4</v>
       </c>
-      <c r="E112" s="16">
+      <c r="E112" s="14">
         <v>16</v>
       </c>
       <c r="G112">
@@ -4566,15 +4584,15 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="12" t="s">
+      <c r="A118" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B119" s="2" t="s">
@@ -4586,7 +4604,7 @@
       <c r="D119" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F119" s="1" t="s">
@@ -4597,7 +4615,7 @@
       <c r="A120" t="s">
         <v>19</v>
       </c>
-      <c r="B120" s="14">
+      <c r="B120" s="4">
         <f>AVERAGE(C120:C121)</f>
         <v>3.3181818181818183</v>
       </c>
@@ -4620,7 +4638,7 @@
       <c r="A121" t="s">
         <v>26</v>
       </c>
-      <c r="B121" s="14">
+      <c r="B121" s="4">
         <f>AVERAGE(C120:C121)</f>
         <v>3.3181818181818183</v>
       </c>
@@ -4670,15 +4688,15 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B128" s="2" t="s">
@@ -4690,7 +4708,7 @@
       <c r="D128" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E128" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F128" s="1" t="s">
@@ -4701,7 +4719,7 @@
       <c r="A129" t="s">
         <v>20</v>
       </c>
-      <c r="B129" s="14">
+      <c r="B129" s="4">
         <f>AVERAGE(C129:C130)</f>
         <v>3.375</v>
       </c>
@@ -4724,7 +4742,7 @@
       <c r="A130" t="s">
         <v>26</v>
       </c>
-      <c r="B130" s="14">
+      <c r="B130" s="4">
         <f>AVERAGE(C129:C130)</f>
         <v>3.375</v>
       </c>
@@ -4771,15 +4789,15 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="12" t="s">
+      <c r="A136" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B136" s="13"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="12"/>
-      <c r="G136" s="12"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B137" s="2" t="s">
@@ -4791,7 +4809,7 @@
       <c r="D137" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="E137" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F137" s="1" t="s">
@@ -4802,7 +4820,7 @@
       <c r="A138" t="s">
         <v>19</v>
       </c>
-      <c r="B138" s="14">
+      <c r="B138" s="4">
         <f>AVERAGE(C138:C139)</f>
         <v>2.3011363636363638</v>
       </c>
@@ -4813,7 +4831,7 @@
       <c r="D138" s="4">
         <v>6</v>
       </c>
-      <c r="E138" s="16">
+      <c r="E138" s="14">
         <v>33</v>
       </c>
       <c r="G138">
@@ -4825,7 +4843,7 @@
       <c r="A139" t="s">
         <v>20</v>
       </c>
-      <c r="B139" s="14">
+      <c r="B139" s="4">
         <f>AVERAGE(C138:C139)</f>
         <v>2.3011363636363638</v>
       </c>
@@ -4836,7 +4854,7 @@
       <c r="D139" s="4">
         <v>2</v>
       </c>
-      <c r="E139" s="16">
+      <c r="E139" s="14">
         <v>16</v>
       </c>
       <c r="G139">
@@ -4872,15 +4890,15 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="12" t="s">
+      <c r="A145" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B145" s="13"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="15"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="12"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B146" s="2" t="s">
@@ -4892,7 +4910,7 @@
       <c r="D146" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E146" s="16" t="s">
+      <c r="E146" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F146" s="1" t="s">
@@ -4903,7 +4921,7 @@
       <c r="A147" t="s">
         <v>19</v>
       </c>
-      <c r="B147" s="14">
+      <c r="B147" s="4">
         <f>AVERAGE(C147:C148)</f>
         <v>3.3636363636363638</v>
       </c>
@@ -4926,7 +4944,7 @@
       <c r="A148" t="s">
         <v>26</v>
       </c>
-      <c r="B148" s="14">
+      <c r="B148" s="4">
         <f>AVERAGE(C147:C148)</f>
         <v>3.3636363636363638</v>
       </c>
@@ -4976,15 +4994,15 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="12" t="s">
+      <c r="A154" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B154" s="13"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B155" s="2" t="s">
@@ -4996,7 +5014,7 @@
       <c r="D155" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E155" s="16" t="s">
+      <c r="E155" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F155" s="1" t="s">
@@ -5007,7 +5025,7 @@
       <c r="A156" t="s">
         <v>20</v>
       </c>
-      <c r="B156" s="14">
+      <c r="B156" s="4">
         <f>AVERAGE(C156:C157)</f>
         <v>2.9375</v>
       </c>
@@ -5030,7 +5048,7 @@
       <c r="A157" t="s">
         <v>26</v>
       </c>
-      <c r="B157" s="14">
+      <c r="B157" s="4">
         <f>AVERAGE(C156:C157)</f>
         <v>2.9375</v>
       </c>
@@ -5077,15 +5095,15 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="12" t="s">
+      <c r="A163" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B163" s="13"/>
-      <c r="C163" s="13"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="15"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="12"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B164" s="2" t="s">
@@ -5097,7 +5115,7 @@
       <c r="D164" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E164" s="16" t="s">
+      <c r="E164" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F164" s="1" t="s">
@@ -5108,7 +5126,7 @@
       <c r="A165" t="s">
         <v>19</v>
       </c>
-      <c r="B165" s="14">
+      <c r="B165" s="4">
         <f>AVERAGE(C165:C166)</f>
         <v>2.5284090909090908</v>
       </c>
@@ -5119,7 +5137,7 @@
       <c r="D165" s="4">
         <v>7</v>
       </c>
-      <c r="E165" s="16">
+      <c r="E165" s="14">
         <v>33</v>
       </c>
       <c r="G165">
@@ -5131,7 +5149,7 @@
       <c r="A166" t="s">
         <v>20</v>
       </c>
-      <c r="B166" s="14">
+      <c r="B166" s="4">
         <f>AVERAGE(C165:C166)</f>
         <v>2.5284090909090908</v>
       </c>
@@ -5142,7 +5160,7 @@
       <c r="D166" s="4">
         <v>2</v>
       </c>
-      <c r="E166" s="16">
+      <c r="E166" s="14">
         <v>16</v>
       </c>
       <c r="G166">
@@ -5178,15 +5196,15 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="12" t="s">
+      <c r="A172" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B172" s="13"/>
-      <c r="C172" s="13"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="15"/>
-      <c r="F172" s="12"/>
-      <c r="G172" s="12"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B173" s="2" t="s">
@@ -5198,7 +5216,7 @@
       <c r="D173" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E173" s="16" t="s">
+      <c r="E173" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F173" s="1" t="s">
@@ -5209,7 +5227,7 @@
       <c r="A174" t="s">
         <v>19</v>
       </c>
-      <c r="B174" s="14">
+      <c r="B174" s="4">
         <f>AVERAGE(C174:C175)</f>
         <v>2.5909090909090908</v>
       </c>
@@ -5232,7 +5250,7 @@
       <c r="A175" t="s">
         <v>26</v>
       </c>
-      <c r="B175" s="14">
+      <c r="B175" s="4">
         <f>AVERAGE(C174:C175)</f>
         <v>2.5909090909090908</v>
       </c>
@@ -5282,15 +5300,15 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="12" t="s">
+      <c r="A181" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B181" s="13"/>
-      <c r="C181" s="13"/>
-      <c r="D181" s="13"/>
-      <c r="E181" s="15"/>
-      <c r="F181" s="12"/>
-      <c r="G181" s="12"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="13"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B182" s="2" t="s">
@@ -5302,7 +5320,7 @@
       <c r="D182" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E182" s="16" t="s">
+      <c r="E182" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F182" s="1" t="s">
@@ -5313,7 +5331,7 @@
       <c r="A183" t="s">
         <v>20</v>
       </c>
-      <c r="B183" s="14">
+      <c r="B183" s="4">
         <f>AVERAGE(C183:C184)</f>
         <v>1.9375</v>
       </c>
@@ -5336,7 +5354,7 @@
       <c r="A184" t="s">
         <v>26</v>
       </c>
-      <c r="B184" s="14">
+      <c r="B184" s="4">
         <f>AVERAGE(C183:C184)</f>
         <v>1.9375</v>
       </c>
@@ -5383,15 +5401,15 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="12" t="s">
+      <c r="A190" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B190" s="13"/>
-      <c r="C190" s="13"/>
-      <c r="D190" s="13"/>
-      <c r="E190" s="15"/>
-      <c r="F190" s="12"/>
-      <c r="G190" s="12"/>
+      <c r="B190" s="12"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B191" s="2" t="s">
@@ -5403,7 +5421,7 @@
       <c r="D191" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E191" s="16" t="s">
+      <c r="E191" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F191" s="1" t="s">
@@ -5414,7 +5432,7 @@
       <c r="A192" t="s">
         <v>19</v>
       </c>
-      <c r="B192" s="14">
+      <c r="B192" s="4">
         <f>AVERAGE(C192:C193)</f>
         <v>1.5909090909090911</v>
       </c>
@@ -5425,7 +5443,7 @@
       <c r="D192" s="4">
         <v>7</v>
       </c>
-      <c r="E192" s="16">
+      <c r="E192" s="14">
         <v>33</v>
       </c>
       <c r="G192">
@@ -5437,7 +5455,7 @@
       <c r="A193" t="s">
         <v>20</v>
       </c>
-      <c r="B193" s="14">
+      <c r="B193" s="4">
         <f>AVERAGE(C192:C193)</f>
         <v>1.5909090909090911</v>
       </c>
@@ -5448,7 +5466,7 @@
       <c r="D193" s="4">
         <v>0</v>
       </c>
-      <c r="E193" s="16">
+      <c r="E193" s="14">
         <v>16</v>
       </c>
       <c r="G193">
@@ -5484,15 +5502,15 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="12" t="s">
+      <c r="A199" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B199" s="13"/>
-      <c r="C199" s="13"/>
-      <c r="D199" s="13"/>
-      <c r="E199" s="15"/>
-      <c r="F199" s="12"/>
-      <c r="G199" s="12"/>
+      <c r="B199" s="12"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B200" s="2" t="s">
@@ -5504,7 +5522,7 @@
       <c r="D200" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E200" s="16" t="s">
+      <c r="E200" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F200" s="1" t="s">
@@ -5515,7 +5533,7 @@
       <c r="A201" t="s">
         <v>19</v>
       </c>
-      <c r="B201" s="14">
+      <c r="B201" s="4">
         <f>AVERAGE(C201:C202)</f>
         <v>2.5909090909090908</v>
       </c>
@@ -5538,7 +5556,7 @@
       <c r="A202" t="s">
         <v>26</v>
       </c>
-      <c r="B202" s="14">
+      <c r="B202" s="4">
         <f>AVERAGE(C201:C202)</f>
         <v>2.5909090909090908</v>
       </c>
@@ -5588,15 +5606,15 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="12" t="s">
+      <c r="A208" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B208" s="13"/>
-      <c r="C208" s="13"/>
-      <c r="D208" s="13"/>
-      <c r="E208" s="15"/>
-      <c r="F208" s="12"/>
-      <c r="G208" s="12"/>
+      <c r="B208" s="12"/>
+      <c r="C208" s="12"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="13"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B209" s="2" t="s">
@@ -5608,7 +5626,7 @@
       <c r="D209" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E209" s="16" t="s">
+      <c r="E209" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F209" s="1" t="s">
@@ -5619,7 +5637,7 @@
       <c r="A210" t="s">
         <v>20</v>
       </c>
-      <c r="B210" s="14">
+      <c r="B210" s="4">
         <f>AVERAGE(C210:C211)</f>
         <v>1</v>
       </c>
@@ -5642,7 +5660,7 @@
       <c r="A211" t="s">
         <v>26</v>
       </c>
-      <c r="B211" s="14">
+      <c r="B211" s="4">
         <f>AVERAGE(C210:C211)</f>
         <v>1</v>
       </c>
@@ -5689,15 +5707,15 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="12" t="s">
+      <c r="A217" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B217" s="13"/>
-      <c r="C217" s="13"/>
-      <c r="D217" s="13"/>
-      <c r="E217" s="15"/>
-      <c r="F217" s="12"/>
-      <c r="G217" s="12"/>
+      <c r="B217" s="12"/>
+      <c r="C217" s="12"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="13"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B218" s="2" t="s">
@@ -5709,7 +5727,7 @@
       <c r="D218" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E218" s="16" t="s">
+      <c r="E218" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F218" s="1" t="s">
@@ -5720,7 +5738,7 @@
       <c r="A219" t="s">
         <v>19</v>
       </c>
-      <c r="B219" s="14">
+      <c r="B219" s="4">
         <f>AVERAGE(C219:C220)</f>
         <v>2.7698863636363638</v>
       </c>
@@ -5731,7 +5749,7 @@
       <c r="D219" s="4">
         <v>6</v>
       </c>
-      <c r="E219" s="16">
+      <c r="E219" s="14">
         <v>33</v>
       </c>
       <c r="G219">
@@ -5743,7 +5761,7 @@
       <c r="A220" t="s">
         <v>20</v>
       </c>
-      <c r="B220" s="14">
+      <c r="B220" s="4">
         <f>AVERAGE(C219:C220)</f>
         <v>2.7698863636363638</v>
       </c>
@@ -5754,7 +5772,7 @@
       <c r="D220" s="4">
         <v>3</v>
       </c>
-      <c r="E220" s="16">
+      <c r="E220" s="14">
         <v>16</v>
       </c>
       <c r="G220">
@@ -5790,15 +5808,15 @@
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="12" t="s">
+      <c r="A226" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B226" s="13"/>
-      <c r="C226" s="13"/>
-      <c r="D226" s="13"/>
-      <c r="E226" s="15"/>
-      <c r="F226" s="12"/>
-      <c r="G226" s="12"/>
+      <c r="B226" s="12"/>
+      <c r="C226" s="12"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="13"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B227" s="2" t="s">
@@ -5810,7 +5828,7 @@
       <c r="D227" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E227" s="16" t="s">
+      <c r="E227" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F227" s="1" t="s">
@@ -5821,7 +5839,7 @@
       <c r="A228" t="s">
         <v>19</v>
       </c>
-      <c r="B228" s="14">
+      <c r="B228" s="4">
         <f>AVERAGE(C228:C229)</f>
         <v>1.3636363636363638</v>
       </c>
@@ -5844,7 +5862,7 @@
       <c r="A229" t="s">
         <v>26</v>
       </c>
-      <c r="B229" s="14">
+      <c r="B229" s="4">
         <f>AVERAGE(C228:C229)</f>
         <v>1.3636363636363638</v>
       </c>
@@ -5894,15 +5912,15 @@
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="12" t="s">
+      <c r="A235" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B235" s="13"/>
-      <c r="C235" s="13"/>
-      <c r="D235" s="13"/>
-      <c r="E235" s="15"/>
-      <c r="F235" s="12"/>
-      <c r="G235" s="12"/>
+      <c r="B235" s="12"/>
+      <c r="C235" s="12"/>
+      <c r="D235" s="12"/>
+      <c r="E235" s="13"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="6"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B236" s="2" t="s">
@@ -5914,7 +5932,7 @@
       <c r="D236" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E236" s="16" t="s">
+      <c r="E236" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F236" s="1" t="s">
@@ -5925,7 +5943,7 @@
       <c r="A237" t="s">
         <v>20</v>
       </c>
-      <c r="B237" s="14">
+      <c r="B237" s="4">
         <f>AVERAGE(C237:C238)</f>
         <v>1.40625</v>
       </c>
@@ -5948,7 +5966,7 @@
       <c r="A238" t="s">
         <v>26</v>
       </c>
-      <c r="B238" s="14">
+      <c r="B238" s="4">
         <f>AVERAGE(C237:C238)</f>
         <v>1.40625</v>
       </c>
@@ -5994,26 +6012,20 @@
         <v>9.3532512689093114E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J243" s="20"/>
-      <c r="K243" s="20"/>
-      <c r="L243" s="20"/>
-      <c r="M243" s="20"/>
-    </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A244" s="12" t="s">
+      <c r="A244" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B244" s="13"/>
-      <c r="C244" s="13"/>
-      <c r="D244" s="13"/>
-      <c r="E244" s="15"/>
-      <c r="F244" s="12"/>
-      <c r="G244" s="12"/>
-      <c r="J244" s="19"/>
-      <c r="K244" s="19"/>
-      <c r="L244" s="19"/>
-      <c r="M244" s="19"/>
+      <c r="B244" s="12"/>
+      <c r="C244" s="12"/>
+      <c r="D244" s="12"/>
+      <c r="E244" s="13"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
+      <c r="J244" s="17"/>
+      <c r="K244" s="17"/>
+      <c r="L244" s="17"/>
+      <c r="M244" s="17"/>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B245" s="2" t="s">
@@ -6025,22 +6037,22 @@
       <c r="D245" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E245" s="16" t="s">
+      <c r="E245" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J245" s="17"/>
-      <c r="K245" s="18"/>
-      <c r="L245" s="18"/>
-      <c r="M245" s="18"/>
+      <c r="J245" s="15"/>
+      <c r="K245" s="16"/>
+      <c r="L245" s="16"/>
+      <c r="M245" s="16"/>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>19</v>
       </c>
-      <c r="B246" s="14">
+      <c r="B246" s="4">
         <f>AVERAGE(C246:C247)</f>
         <v>0.22727272727272729</v>
       </c>
@@ -6051,23 +6063,23 @@
       <c r="D246" s="4">
         <v>1</v>
       </c>
-      <c r="E246" s="16">
+      <c r="E246" s="14">
         <v>33</v>
       </c>
       <c r="G246">
         <f>((B246-C246)^2)/B246</f>
         <v>0.22727272727272729</v>
       </c>
-      <c r="J246" s="17"/>
-      <c r="K246" s="18"/>
-      <c r="L246" s="18"/>
-      <c r="M246" s="18"/>
+      <c r="J246" s="15"/>
+      <c r="K246" s="16"/>
+      <c r="L246" s="16"/>
+      <c r="M246" s="16"/>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>20</v>
       </c>
-      <c r="B247" s="14">
+      <c r="B247" s="4">
         <f>AVERAGE(C246:C247)</f>
         <v>0.22727272727272729</v>
       </c>
@@ -6078,23 +6090,23 @@
       <c r="D247" s="4">
         <v>0</v>
       </c>
-      <c r="E247" s="16">
+      <c r="E247" s="14">
         <v>16</v>
       </c>
       <c r="G247">
         <f>((B247-C247)^2)/B247</f>
         <v>0.22727272727272729</v>
       </c>
-      <c r="J247" s="17"/>
-      <c r="K247" s="18"/>
-      <c r="L247" s="18"/>
-      <c r="M247" s="18"/>
+      <c r="J247" s="15"/>
+      <c r="K247" s="16"/>
+      <c r="L247" s="16"/>
+      <c r="M247" s="16"/>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J248" s="17"/>
-      <c r="K248" s="18"/>
-      <c r="L248" s="18"/>
-      <c r="M248" s="18"/>
+      <c r="J248" s="15"/>
+      <c r="K248" s="16"/>
+      <c r="L248" s="16"/>
+      <c r="M248" s="16"/>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F249" s="4" t="s">
@@ -6104,10 +6116,10 @@
         <f>SUM(G246:G247)</f>
         <v>0.45454545454545459</v>
       </c>
-      <c r="J249" s="17"/>
-      <c r="K249" s="18"/>
-      <c r="L249" s="18"/>
-      <c r="M249" s="18"/>
+      <c r="J249" s="15"/>
+      <c r="K249" s="16"/>
+      <c r="L249" s="16"/>
+      <c r="M249" s="16"/>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F250" s="4" t="s">
@@ -6117,10 +6129,10 @@
         <f>2-1</f>
         <v>1</v>
       </c>
-      <c r="J250" s="17"/>
-      <c r="K250" s="18"/>
-      <c r="L250" s="18"/>
-      <c r="M250" s="18"/>
+      <c r="J250" s="15"/>
+      <c r="K250" s="16"/>
+      <c r="L250" s="16"/>
+      <c r="M250" s="16"/>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F251" s="4" t="s">
@@ -6130,31 +6142,31 @@
         <f>_xlfn.CHISQ.TEST(C246:C247,B246:B247)</f>
         <v>0.50018425707079439</v>
       </c>
-      <c r="J251" s="17"/>
-      <c r="K251" s="18"/>
-      <c r="L251" s="18"/>
-      <c r="M251" s="18"/>
+      <c r="J251" s="15"/>
+      <c r="K251" s="16"/>
+      <c r="L251" s="16"/>
+      <c r="M251" s="16"/>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J252" s="17"/>
-      <c r="K252" s="18"/>
-      <c r="L252" s="18"/>
-      <c r="M252" s="18"/>
+      <c r="J252" s="15"/>
+      <c r="K252" s="16"/>
+      <c r="L252" s="16"/>
+      <c r="M252" s="16"/>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A253" s="12" t="s">
+      <c r="A253" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B253" s="13"/>
-      <c r="C253" s="13"/>
-      <c r="D253" s="13"/>
-      <c r="E253" s="15"/>
-      <c r="F253" s="12"/>
-      <c r="G253" s="12"/>
-      <c r="J253" s="17"/>
-      <c r="K253" s="18"/>
-      <c r="L253" s="18"/>
-      <c r="M253" s="18"/>
+      <c r="B253" s="12"/>
+      <c r="C253" s="12"/>
+      <c r="D253" s="12"/>
+      <c r="E253" s="13"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
+      <c r="J253" s="15"/>
+      <c r="K253" s="16"/>
+      <c r="L253" s="16"/>
+      <c r="M253" s="16"/>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B254" s="2" t="s">
@@ -6166,22 +6178,22 @@
       <c r="D254" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E254" s="16" t="s">
+      <c r="E254" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J254" s="17"/>
-      <c r="K254" s="18"/>
-      <c r="L254" s="18"/>
-      <c r="M254" s="18"/>
+      <c r="J254" s="15"/>
+      <c r="K254" s="16"/>
+      <c r="L254" s="16"/>
+      <c r="M254" s="16"/>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>19</v>
       </c>
-      <c r="B255" s="14">
+      <c r="B255" s="4">
         <f>AVERAGE(C255:C256)</f>
         <v>2.7272727272727275</v>
       </c>
@@ -6199,16 +6211,12 @@
         <f>((B255-C255)^2)/B255</f>
         <v>1.8939393939393943</v>
       </c>
-      <c r="J255" s="20"/>
-      <c r="K255" s="20"/>
-      <c r="L255" s="20"/>
-      <c r="M255" s="20"/>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>26</v>
       </c>
-      <c r="B256" s="14">
+      <c r="B256" s="4">
         <f>AVERAGE(C255:C256)</f>
         <v>2.7272727272727275</v>
       </c>
@@ -6258,15 +6266,15 @@
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="12" t="s">
+      <c r="A262" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B262" s="13"/>
-      <c r="C262" s="13"/>
-      <c r="D262" s="13"/>
-      <c r="E262" s="15"/>
-      <c r="F262" s="12"/>
-      <c r="G262" s="12"/>
+      <c r="B262" s="12"/>
+      <c r="C262" s="12"/>
+      <c r="D262" s="12"/>
+      <c r="E262" s="13"/>
+      <c r="F262" s="6"/>
+      <c r="G262" s="6"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B263" s="2" t="s">
@@ -6278,7 +6286,7 @@
       <c r="D263" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E263" s="16" t="s">
+      <c r="E263" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F263" s="1" t="s">
@@ -6289,7 +6297,7 @@
       <c r="A264" t="s">
         <v>20</v>
       </c>
-      <c r="B264" s="14">
+      <c r="B264" s="4">
         <f>AVERAGE(C264:C265)</f>
         <v>2.5</v>
       </c>
@@ -6312,7 +6320,7 @@
       <c r="A265" t="s">
         <v>26</v>
       </c>
-      <c r="B265" s="14">
+      <c r="B265" s="4">
         <f>AVERAGE(C264:C265)</f>
         <v>2.5</v>
       </c>
@@ -6378,8 +6386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7D2746-B9AD-4C4D-B15D-C7F681D1E06B}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6395,187 +6403,187 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="23" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="29">
+      <c r="B3" s="19"/>
+      <c r="C3" s="24">
         <f>VLOOKUP(A3,Smartphone!A:C,2,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="24">
         <f>VLOOKUP(A3,Integrated!A:C,2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="24">
         <f>VLOOKUP(A3,Streaming!A:C,2,FALSE)</f>
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="29">
+      <c r="B4" s="19"/>
+      <c r="C4" s="24">
         <f>VLOOKUP(A4,Smartphone!A:C,2,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="24">
         <f>VLOOKUP(A4,Integrated!A:C,2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="24">
         <f>VLOOKUP(A4,Streaming!A:C,2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="29">
+      <c r="B5" s="19"/>
+      <c r="C5" s="24">
         <f>VLOOKUP(A5,Smartphone!A:C,2,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="24">
         <f>VLOOKUP(A5,Integrated!A:C,2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="24">
         <f>VLOOKUP(A5,Streaming!A:C,2,FALSE)</f>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="29">
+      <c r="B6" s="19"/>
+      <c r="C6" s="24">
         <f>VLOOKUP(A6,Smartphone!A:C,2,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24">
         <f>VLOOKUP(A6,Streaming!A:C,2,FALSE)</f>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="29">
+      <c r="B7" s="19"/>
+      <c r="C7" s="24">
         <f>VLOOKUP(A7,Smartphone!A:C,2,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="24">
         <f>VLOOKUP(A7,Integrated!A:C,2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="24">
         <f>VLOOKUP(A7,Streaming!A:C,2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="29">
+      <c r="B8" s="19"/>
+      <c r="C8" s="24">
         <f>VLOOKUP(A8,Smartphone!A:C,2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="24">
         <f>VLOOKUP(A8,Integrated!A:C,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="24">
         <f>VLOOKUP(A8,Streaming!A:C,2,FALSE)</f>
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="29">
+      <c r="B9" s="19"/>
+      <c r="C9" s="24">
         <f>VLOOKUP(A9,Smartphone!A:C,2,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="24">
         <f>VLOOKUP(A9,Integrated!A:C,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="24">
         <f>VLOOKUP(A9,Streaming!A:C,2,FALSE)</f>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="29">
+      <c r="B10" s="19"/>
+      <c r="C10" s="24">
         <f>VLOOKUP(A10,Smartphone!A:C,2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="24">
         <f>VLOOKUP(A10,Integrated!A:C,2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="29">
+      <c r="B11" s="19"/>
+      <c r="C11" s="24">
         <f>VLOOKUP(A11,Smartphone!A:C,2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="24">
         <f>VLOOKUP(A11,Integrated!A:C,2,FALSE)</f>
         <v>11</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="24">
         <f>VLOOKUP(A11,Streaming!A:C,2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="29">
+      <c r="B12" s="19"/>
+      <c r="C12" s="24">
         <f>VLOOKUP(A12,Smartphone!A:C,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24">
         <f>VLOOKUP(A12,Streaming!A:C,2,FALSE)</f>
         <v>5</v>
       </c>
@@ -6586,269 +6594,269 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="28" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="22" t="str">
-        <f>A17&amp;" (f="&amp;F17&amp;")"</f>
-        <v>Conflict between other system and navigation (f=24)</v>
-      </c>
-      <c r="C17" s="29">
-        <f>VLOOKUP(A17,All!B:Q,3,FALSE)</f>
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="D17" s="29">
-        <f>VLOOKUP(A17,All!B:Q,6,FALSE)</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="E17" s="29">
-        <f>VLOOKUP(A17,All!B:Q,9,FALSE)</f>
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="F17" s="22">
+      <c r="B17" s="19" t="str">
+        <f>A17&amp;" w(f)="&amp;ROUND(F17,1)&amp;""</f>
+        <v>Conflict between other system and navigation w(f)=15,6</v>
+      </c>
+      <c r="C17" s="24">
+        <f>VLOOKUP(A17,All!B:Q,4,FALSE)</f>
+        <v>6.8181818181818183</v>
+      </c>
+      <c r="D17" s="24">
+        <f>VLOOKUP(A17,All!B:Q,7,FALSE)</f>
+        <v>2.8125</v>
+      </c>
+      <c r="E17" s="24">
+        <f>VLOOKUP(A17,All!B:Q,10,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="F17" s="25">
         <f>VLOOKUP(A17,All!B:Q,14,FALSE)</f>
-        <v>24</v>
+        <v>15.630681818181818</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="22" t="str">
-        <f t="shared" ref="B18:B26" si="0">A18&amp;" (f="&amp;F18&amp;")"</f>
-        <v>Bad instructions or difficulty interpreting (f=17)</v>
-      </c>
-      <c r="C18" s="29">
-        <f>VLOOKUP(A18,All!B:Q,3,FALSE)</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="D18" s="29">
-        <f>VLOOKUP(A18,All!B:Q,6,FALSE)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E18" s="29">
-        <f>VLOOKUP(A18,All!B:Q,9,FALSE)</f>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="F18" s="22">
+      <c r="B18" s="19" t="str">
+        <f t="shared" ref="B18:B26" si="0">A18&amp;" w(f)="&amp;ROUND(F18,1)&amp;""</f>
+        <v>Bad instructions or difficulty interpreting w(f)=13,6</v>
+      </c>
+      <c r="C18" s="24">
+        <f>VLOOKUP(A18,All!B:Q,4,FALSE)</f>
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="D18" s="24">
+        <f>VLOOKUP(A18,All!B:Q,7,FALSE)</f>
+        <v>10.3125</v>
+      </c>
+      <c r="E18" s="24">
+        <f>VLOOKUP(A18,All!B:Q,10,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="25">
         <f>VLOOKUP(A18,All!B:Q,14,FALSE)</f>
-        <v>17</v>
+        <v>13.585227272727273</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="19" t="str">
+        <f>A19&amp;" w(f)="&amp;ROUND(F19,1)&amp;""</f>
+        <v>Navigation and traffic related notifications w(f)=10,4</v>
+      </c>
+      <c r="C19" s="24">
+        <f>VLOOKUP(A19,All!B:Q,4,FALSE)</f>
+        <v>3.6363636363636367</v>
+      </c>
+      <c r="D19" s="24">
+        <f>VLOOKUP(A19,All!B:Q,7,FALSE)</f>
+        <v>3.75</v>
+      </c>
+      <c r="E19" s="24">
+        <f>VLOOKUP(A19,All!B:Q,10,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F19" s="25">
+        <f>VLOOKUP(A19,All!B:Q,14,FALSE)</f>
+        <v>10.386363636363637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="22" t="str">
+      <c r="B20" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>Navigation interferes with driving tasks (f=15)</v>
-      </c>
-      <c r="C19" s="29">
-        <f>VLOOKUP(A19,All!B:Q,3,FALSE)</f>
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="D19" s="29">
-        <f>VLOOKUP(A19,All!B:Q,6,FALSE)</f>
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="E19" s="29">
-        <f>VLOOKUP(A19,All!B:Q,9,FALSE)</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="F19" s="22">
-        <f>VLOOKUP(A19,All!B:Q,14,FALSE)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="22" t="str">
+        <v>Navigation interferes with driving tasks w(f)=10,3</v>
+      </c>
+      <c r="C20" s="24">
+        <f>VLOOKUP(A20,All!B:Q,4,FALSE)</f>
+        <v>3.6363636363636367</v>
+      </c>
+      <c r="D20" s="24">
+        <f>VLOOKUP(A20,All!B:Q,7,FALSE)</f>
+        <v>4.6875</v>
+      </c>
+      <c r="E20" s="24">
+        <f>VLOOKUP(A20,All!B:Q,10,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="F20" s="25">
+        <f>VLOOKUP(A20,All!B:Q,14,FALSE)</f>
+        <v>10.323863636363637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>Navigation and traffic related notifications (f=15)</v>
-      </c>
-      <c r="C20" s="29">
-        <f>VLOOKUP(A20,All!B:Q,3,FALSE)</f>
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="D20" s="29">
-        <f>VLOOKUP(A20,All!B:Q,6,FALSE)</f>
-        <v>0.12121212121212122</v>
-      </c>
-      <c r="E20" s="29">
-        <f>VLOOKUP(A20,All!B:Q,9,FALSE)</f>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="F20" s="22">
-        <f>VLOOKUP(A20,All!B:Q,14,FALSE)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="22" t="str">
+        <v>Searching what lane to take w(f)=9</v>
+      </c>
+      <c r="C21" s="24">
+        <f>VLOOKUP(A21,All!B:Q,4,FALSE)</f>
+        <v>3.1818181818181821</v>
+      </c>
+      <c r="D21" s="24">
+        <f>VLOOKUP(A21,All!B:Q,7,FALSE)</f>
+        <v>2.8125</v>
+      </c>
+      <c r="E21" s="24">
+        <f>VLOOKUP(A21,All!B:Q,10,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F21" s="25">
+        <f>VLOOKUP(A21,All!B:Q,14,FALSE)</f>
+        <v>8.9943181818181817</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="19" t="str">
+        <f>A22&amp;" w(f)="&amp;ROUND(F22,1)&amp;""</f>
+        <v>Message notifications interfere with navigation w(f)=9</v>
+      </c>
+      <c r="C22" s="24">
+        <f>VLOOKUP(A22,All!B:Q,4,FALSE)</f>
+        <v>3.1818181818181821</v>
+      </c>
+      <c r="D22" s="24">
+        <f>VLOOKUP(A22,All!B:Q,7,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="24">
+        <f>VLOOKUP(A22,All!B:Q,10,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="F22" s="25">
+        <f>VLOOKUP(A22,All!B:Q,14,FALSE)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="19" t="str">
+        <f>A23&amp;" w(f)="&amp;ROUND(F23,1)&amp;""</f>
+        <v>Communication failure w(f)=9</v>
+      </c>
+      <c r="C23" s="24">
+        <f>VLOOKUP(A23,All!B:Q,4,FALSE)</f>
+        <v>2.7272727272727275</v>
+      </c>
+      <c r="D23" s="24">
+        <f>VLOOKUP(A23,All!B:Q,7,FALSE)</f>
+        <v>1.3636363636363638</v>
+      </c>
+      <c r="E23" s="24">
+        <f>VLOOKUP(A23,All!B:Q,10,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="25">
+        <f>VLOOKUP(A23,All!B:Q,14,FALSE)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>Searching what lane to take (f=13)</v>
-      </c>
-      <c r="C21" s="29">
-        <f>VLOOKUP(A21,All!B:Q,3,FALSE)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D21" s="29">
-        <f>VLOOKUP(A21,All!B:Q,6,FALSE)</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="E21" s="29">
-        <f>VLOOKUP(A21,All!B:Q,9,FALSE)</f>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="F21" s="22">
-        <f>VLOOKUP(A21,All!B:Q,14,FALSE)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+        <v>Route changes or suggestions w(f)=8,6</v>
+      </c>
+      <c r="C24" s="24">
+        <f>VLOOKUP(A24,All!B:Q,4,FALSE)</f>
+        <v>2.7272727272727275</v>
+      </c>
+      <c r="D24" s="24">
+        <f>VLOOKUP(A24,All!B:Q,7,FALSE)</f>
+        <v>1.875</v>
+      </c>
+      <c r="E24" s="24">
+        <f>VLOOKUP(A24,All!B:Q,10,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="B22" s="22" t="str">
+      <c r="F24" s="25">
+        <f>VLOOKUP(A24,All!B:Q,14,FALSE)</f>
+        <v>8.6022727272727266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>Route changes or suggestions (f=12)</v>
-      </c>
-      <c r="C22" s="29">
-        <f>VLOOKUP(A22,All!B:Q,3,FALSE)</f>
-        <v>8.5714285714285715E-2</v>
-      </c>
-      <c r="D22" s="29">
-        <f>VLOOKUP(A22,All!B:Q,6,FALSE)</f>
-        <v>6.0606060606060608E-2</v>
-      </c>
-      <c r="E22" s="29">
-        <f>VLOOKUP(A22,All!B:Q,9,FALSE)</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F22" s="22">
-        <f>VLOOKUP(A22,All!B:Q,14,FALSE)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="22" t="str">
+        <v>Navigation system failure w(f)=7,1</v>
+      </c>
+      <c r="C25" s="24">
+        <f>VLOOKUP(A25,All!B:Q,4,FALSE)</f>
+        <v>3.1818181818181821</v>
+      </c>
+      <c r="D25" s="24">
+        <f>VLOOKUP(A25,All!B:Q,7,FALSE)</f>
+        <v>1.875</v>
+      </c>
+      <c r="E25" s="24">
+        <f>VLOOKUP(A25,All!B:Q,10,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="F25" s="25">
+        <f>VLOOKUP(A25,All!B:Q,14,FALSE)</f>
+        <v>7.0568181818181817</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>Navigation system failure (f=11)</v>
-      </c>
-      <c r="C23" s="29">
-        <f>VLOOKUP(A23,All!B:Q,3,FALSE)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="29">
-        <f>VLOOKUP(A23,All!B:Q,6,FALSE)</f>
-        <v>6.0606060606060608E-2</v>
-      </c>
-      <c r="E23" s="29">
-        <f>VLOOKUP(A23,All!B:Q,9,FALSE)</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="F23" s="22">
-        <f>VLOOKUP(A23,All!B:Q,14,FALSE)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>Message notifications interfere with navigation (f=9)</v>
-      </c>
-      <c r="C24" s="29">
-        <f>VLOOKUP(A24,All!B:Q,3,FALSE)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D24" s="29">
-        <f>VLOOKUP(A24,All!B:Q,6,FALSE)</f>
+        <v>Traffic camera notifications w(f)=6</v>
+      </c>
+      <c r="C26" s="24">
+        <f>VLOOKUP(A26,All!B:Q,4,FALSE)</f>
+        <v>0.45454545454545459</v>
+      </c>
+      <c r="D26" s="24">
+        <f>VLOOKUP(A26,All!B:Q,7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="29">
-        <f>VLOOKUP(A24,All!B:Q,9,FALSE)</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="F24" s="22">
-        <f>VLOOKUP(A24,All!B:Q,14,FALSE)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>Communication failure (f=9)</v>
-      </c>
-      <c r="C25" s="29">
-        <f>VLOOKUP(A25,All!B:Q,3,FALSE)</f>
-        <v>8.5714285714285715E-2</v>
-      </c>
-      <c r="D25" s="29">
-        <f>VLOOKUP(A25,All!B:Q,6,FALSE)</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="E25" s="29">
-        <f>VLOOKUP(A25,All!B:Q,9,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="22">
-        <f>VLOOKUP(A25,All!B:Q,14,FALSE)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="E26" s="24">
+        <f>VLOOKUP(A26,All!B:Q,10,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="B26" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>Traffic camera notifications (f=6)</v>
-      </c>
-      <c r="C26" s="29">
-        <f>VLOOKUP(A26,All!B:Q,3,FALSE)</f>
-        <v>1.4285714285714285E-2</v>
-      </c>
-      <c r="D26" s="29">
-        <f>VLOOKUP(A26,All!B:Q,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="29">
-        <f>VLOOKUP(A26,All!B:Q,9,FALSE)</f>
-        <v>0.17857142857142858</v>
-      </c>
-      <c r="F26" s="22">
+      <c r="F26" s="25">
         <f>VLOOKUP(A26,All!B:Q,14,FALSE)</f>
         <v>6</v>
       </c>
@@ -7279,10 +7287,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007E3BDA08E1E5A249978B11231DCF019A" ma:contentTypeVersion="11" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a7ca215021bbdd190a5af84d80b652fc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4a4afeb0-7e72-4d51-8cf1-662855e0da1b" xmlns:ns3="63184760-ab03-4f31-8d05-e57fd1de7cd7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f6025b888d8bdcce249ab03fa1f72" ns2:_="" ns3:_="">
-    <xsd:import namespace="4a4afeb0-7e72-4d51-8cf1-662855e0da1b"/>
-    <xsd:import namespace="63184760-ab03-4f31-8d05-e57fd1de7cd7"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d6a03bd9-b31b-493a-b31e-bb4432e88c75" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0e881998-9419-4d13-b84d-721ac971c709">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004C9F4F6ABB567045B93F1D0C638A57F9" ma:contentTypeVersion="14" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="618a17aee6fe21829d83342cfb0aeda2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e881998-9419-4d13-b84d-721ac971c709" xmlns:ns3="d6a03bd9-b31b-493a-b31e-bb4432e88c75" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f381c43000bb8a88d8a6b5bfc4c73959" ns2:_="" ns3:_="">
+    <xsd:import namespace="0e881998-9419-4d13-b84d-721ac971c709"/>
+    <xsd:import namespace="d6a03bd9-b31b-493a-b31e-bb4432e88c75"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -7295,10 +7314,13 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -7306,7 +7328,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4a4afeb0-7e72-4d51-8cf1-662855e0da1b" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0e881998-9419-4d13-b84d-721ac971c709" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -7341,28 +7363,45 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5eaa6d45-cff0-4e56-a5c8-0425e41e0f9b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5eaa6d45-cff0-4e56-a5c8-0425e41e0f9b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="63184760-ab03-4f31-8d05-e57fd1de7cd7" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d6a03bd9-b31b-493a-b31e-bb4432e88c75" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e1844fe6-43bb-44ca-860b-cdc46f75e607}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="63184760-ab03-4f31-8d05-e57fd1de7cd7">
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{8e1fa4af-7bd6-40f1-95bc-3c1c2580a70b}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d6a03bd9-b31b-493a-b31e-bb4432e88c75">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -7473,7 +7512,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7482,30 +7521,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="63184760-ab03-4f31-8d05-e57fd1de7cd7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4a4afeb0-7e72-4d51-8cf1-662855e0da1b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78C7E62C-D8B3-45B1-9460-9E141F4F4687}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CFD971-D88C-4B47-9F7E-6E2AE41AD073}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{562789AB-4FE8-4189-AD37-E469DA170DEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7514,4 +7530,31 @@
     <ds:schemaRef ds:uri="0e881998-9419-4d13-b84d-721ac971c709"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4127B81-5C6D-4120-B79E-95536F2B70C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0e881998-9419-4d13-b84d-721ac971c709"/>
+    <ds:schemaRef ds:uri="d6a03bd9-b31b-493a-b31e-bb4432e88c75"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CFD971-D88C-4B47-9F7E-6E2AE41AD073}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>